--- a/src/main/resources/static/excels/DANHSACH_LOP_HOC_PHAN.xlsx
+++ b/src/main/resources/static/excels/DANHSACH_LOP_HOC_PHAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject-master\src\main\resources\static\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject\src\main\resources\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24015EB-D769-4F3A-938F-619F88B51AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB16E98-6143-4BDD-88F9-C040FA938A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EAC37D13-4CCB-42E1-9FD5-FADE419EB48D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -262,18 +262,32 @@
   </si>
   <si>
     <t>DHKTPM12BTT</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>CNTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,29 +431,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -757,11 +772,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3DA56-00CB-4839-A098-E301EC68634F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +793,7 @@
     <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -806,48 +821,54 @@
       <c r="I1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="K1" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>420300048764</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>4</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>15</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>90</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>43916</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>44038</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>123456</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,13 +884,13 @@
       <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -885,13 +906,13 @@
       <c r="E5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="17"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -907,13 +928,13 @@
       <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -929,13 +950,13 @@
       <c r="E7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -951,13 +972,13 @@
       <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="17"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -973,13 +994,13 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="17"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -995,13 +1016,13 @@
       <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1017,13 +1038,13 @@
       <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1039,13 +1060,13 @@
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="17"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1061,13 +1082,13 @@
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="17"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1083,13 +1104,13 @@
       <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="17"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1105,13 +1126,13 @@
       <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1127,11 +1148,11 @@
       <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1149,11 +1170,11 @@
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1171,11 +1192,11 @@
       <c r="E18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1193,11 +1214,11 @@
       <c r="E19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1215,11 +1236,11 @@
       <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1237,11 +1258,11 @@
       <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1259,11 +1280,11 @@
       <c r="E22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1281,11 +1302,11 @@
       <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1303,11 +1324,11 @@
       <c r="E24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1325,11 +1346,11 @@
       <c r="E25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1347,11 +1368,11 @@
       <c r="E26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1369,11 +1390,11 @@
       <c r="E27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1391,11 +1412,11 @@
       <c r="E28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1413,11 +1434,11 @@
       <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1435,11 +1456,11 @@
       <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1457,11 +1478,11 @@
       <c r="E31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1479,11 +1500,11 @@
       <c r="E32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1501,11 +1522,11 @@
       <c r="E33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1523,11 +1544,11 @@
       <c r="E34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1545,14 +1566,14 @@
       <c r="E35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
